--- a/medicine/Psychotrope/Caffè_Gambrinus/Caffè_Gambrinus.xlsx
+++ b/medicine/Psychotrope/Caffè_Gambrinus/Caffè_Gambrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Gambrinus</t>
+          <t>Caffè_Gambrinus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Caffè Gambrinus est un café situé sur la célèbre Piazza del Plebiscito de Naples et au numéro 1 de la via Chiaia. Son nom est inspiré de Joannus Primus, roi des Flandres, légendaire inventeur de la bière.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caff%C3%A8_Gambrinus</t>
+          <t>Caffè_Gambrinus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Caffè Gambrinus est fondé en 1860 par l'entrepreneur Vincenzo Apuzzo qui sait s'entourer des meilleurs brigades de pâtissiers et glaciers de l'époque. Dès lors, le Gambrinus obtient immédiatement un énorme succès ainsi que la bienveillance de la famille royale et la reconnaissance par décret de « Fournisseur de la Maison royale ».
 Après Apuzzo, la gestion passa à Mario Vacca, qui confia la décoration de l'intérieur de l'établissement aux meilleurs peintres de l'école napolitaine parmi lesquels Vincenzo Caprile, Giuseppe Casciaro, Vincenzo Irolli, Edoardo Matania, Vincenzo Migliaro, Luca Postiglione, Attilio Pratella, Giuseppe De Sanctis, Pietro Scoppetta et Vincenzo Volpe. Décoré de fresques et de frises dans un style floral qui annonce l'Art nouveau, il conserve de nombreux stucs dorés, de larges miroirs, statues et œuvres picturales.
